--- a/周青山/编码进度表—周青山 .xlsx
+++ b/周青山/编码进度表—周青山 .xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\hgkj_02\周青山\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59846A08-9A27-4229-B8BB-3FFEDA456576}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="1680" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周青山 " sheetId="11" r:id="rId1"/>
@@ -122,7 +128,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -729,6 +735,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -747,42 +756,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="25">
-    <cellStyle name="20% - 着色 5" xfId="4"/>
-    <cellStyle name="40% - 着色 4" xfId="7"/>
-    <cellStyle name="40% - 着色 5" xfId="9"/>
-    <cellStyle name="60% - 着色 2" xfId="2"/>
-    <cellStyle name="标题 1 2" xfId="3"/>
-    <cellStyle name="标题 2 2" xfId="11"/>
-    <cellStyle name="标题 3 2" xfId="12"/>
-    <cellStyle name="标题 4 2" xfId="13"/>
-    <cellStyle name="标题 5" xfId="14"/>
-    <cellStyle name="差 2" xfId="15"/>
+    <cellStyle name="20% - 着色 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="40% - 着色 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="40% - 着色 5" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="60% - 着色 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="标题 1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="标题 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="标题 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="标题 4 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="标题 5" xfId="14" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="差 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="16"/>
-    <cellStyle name="好 2" xfId="17"/>
-    <cellStyle name="汇总 2" xfId="18"/>
-    <cellStyle name="计算 2" xfId="1"/>
-    <cellStyle name="检查单元格 2" xfId="19"/>
-    <cellStyle name="解释性文本 2" xfId="20"/>
-    <cellStyle name="警告文本 2" xfId="21"/>
-    <cellStyle name="链接单元格 2" xfId="22"/>
-    <cellStyle name="适中 2" xfId="10"/>
-    <cellStyle name="输出 2" xfId="6"/>
-    <cellStyle name="输入 2" xfId="23"/>
-    <cellStyle name="着色 1" xfId="5"/>
-    <cellStyle name="着色 5" xfId="8"/>
-    <cellStyle name="注释 2" xfId="24"/>
+    <cellStyle name="常规 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="好 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="汇总 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="计算 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="检查单元格 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="解释性文本 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="警告文本 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="链接单元格 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="适中 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="输出 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="输入 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="着色 1" xfId="5" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="着色 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="注释 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1116,7 +1125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1137,16 +1146,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1175,7 +1184,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1191,7 +1200,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -1202,10 +1211,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -1216,10 +1225,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -1230,7 +1239,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
@@ -1240,10 +1249,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1263,7 +1272,7 @@
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1283,7 +1292,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1301,7 +1310,7 @@
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -1319,7 +1328,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
@@ -1330,14 +1339,14 @@
       <c r="E12" s="18">
         <v>43643</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="20">
         <v>0.3</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1351,7 +1360,7 @@
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1365,7 +1374,7 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -1397,7 +1406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1418,16 +1427,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1456,7 +1465,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1472,7 +1481,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -1483,10 +1492,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -1497,10 +1506,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -1511,7 +1520,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
@@ -1521,10 +1530,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1540,7 +1549,7 @@
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1554,7 +1563,7 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1568,7 +1577,7 @@
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -1582,7 +1591,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="10" t="s">
         <v>25</v>
       </c>
@@ -1596,7 +1605,7 @@
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1610,7 +1619,7 @@
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1624,7 +1633,7 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -1653,11 +1662,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1674,16 +1683,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1712,7 +1721,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1728,7 +1737,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -1739,10 +1748,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -1753,10 +1762,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -1767,7 +1776,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
@@ -1777,10 +1786,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1802,49 +1811,67 @@
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="6">
         <v>43640</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
+      <c r="D9" s="6">
+        <v>43640</v>
+      </c>
+      <c r="E9" s="6">
+        <v>43640</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.9</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="6">
         <v>43641</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
+      <c r="D10" s="6">
+        <v>43641</v>
+      </c>
+      <c r="E10" s="6">
+        <v>43641</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.9</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="12">
         <v>43642</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="12">
+        <v>43642</v>
+      </c>
+      <c r="E11" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.9</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
@@ -1858,7 +1885,7 @@
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1872,7 +1899,7 @@
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1886,7 +1913,7 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -1915,7 +1942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1936,16 +1963,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1974,7 +2001,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1990,7 +2017,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -2001,10 +2028,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -2015,10 +2042,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -2029,7 +2056,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
@@ -2039,10 +2066,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2062,7 +2089,7 @@
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -2076,7 +2103,7 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -2090,7 +2117,7 @@
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -2104,7 +2131,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
@@ -2118,7 +2145,7 @@
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -2132,7 +2159,7 @@
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2146,7 +2173,7 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2175,7 +2202,536 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6">
+        <v>43647</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>43648</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <v>43649</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12">
+        <v>43650</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12">
+        <v>43639</v>
+      </c>
+      <c r="D8" s="6">
+        <v>43639</v>
+      </c>
+      <c r="E8" s="6">
+        <v>43639</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6">
+        <v>43640</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6">
+        <v>43641</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12">
+        <v>43642</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="18">
+        <v>43643</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="18">
+        <v>43644</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="26"/>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="18">
+        <v>43645</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="26"/>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="18">
+        <v>43646</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A8:A15"/>
+  </mergeCells>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6">
+        <v>43647</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>43648</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <v>43649</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12">
+        <v>43650</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12">
+        <v>43639</v>
+      </c>
+      <c r="E8" s="6">
+        <v>43639</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6">
+        <v>43640</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="6">
+        <v>43640</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6">
+        <v>43641</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="6">
+        <v>43641</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12">
+        <v>43642</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
+        <v>43642</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="18">
+        <v>43643</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18">
+        <v>43643</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="18">
+        <v>43644</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="26"/>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="18">
+        <v>43645</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="26"/>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="18">
+        <v>43646</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:A15"/>
+  </mergeCells>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2196,16 +2752,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -2234,7 +2790,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2250,7 +2806,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -2261,10 +2817,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -2275,10 +2831,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -2289,7 +2845,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
@@ -2299,10 +2855,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2311,20 +2867,18 @@
       <c r="C8" s="12">
         <v>43639</v>
       </c>
-      <c r="D8" s="6">
-        <v>43639</v>
-      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="6">
         <v>43639</v>
       </c>
       <c r="F8" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -2338,7 +2892,7 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -2352,7 +2906,7 @@
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -2366,7 +2920,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
@@ -2380,7 +2934,7 @@
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -2394,7 +2948,7 @@
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2408,274 +2962,7 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="18">
-        <v>43646</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A8:A15"/>
-  </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6">
-        <v>43647</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6">
-        <v>43648</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="23"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6">
-        <v>43649</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="24"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="12">
-        <v>43650</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="12">
-        <v>43639</v>
-      </c>
-      <c r="E8" s="6">
-        <v>43639</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6">
-        <v>43640</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="6">
-        <v>43640</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6">
-        <v>43641</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="6">
-        <v>43641</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="12">
-        <v>43642</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12">
-        <v>43642</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="18">
-        <v>43643</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18">
-        <v>43643</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="18">
-        <v>43644</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="18">
-        <v>43645</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2703,8 +2990,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2725,16 +3012,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -2763,7 +3050,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2779,7 +3066,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -2790,10 +3077,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -2804,10 +3091,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -2818,7 +3105,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
@@ -2828,10 +3115,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2841,17 +3128,13 @@
         <v>43639</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="6">
-        <v>43639</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0.2</v>
-      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="8"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -2865,7 +3148,7 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -2879,7 +3162,7 @@
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -2893,7 +3176,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
@@ -2907,7 +3190,7 @@
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -2921,7 +3204,7 @@
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2935,7 +3218,7 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2963,8 +3246,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2985,16 +3268,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -3023,7 +3306,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3039,7 +3322,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -3050,10 +3333,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -3064,10 +3347,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -3078,7 +3361,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
@@ -3088,10 +3371,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -3101,13 +3384,17 @@
         <v>43639</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="6">
+        <v>43639</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.2</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -3121,7 +3408,7 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -3135,7 +3422,7 @@
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -3149,7 +3436,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
@@ -3163,7 +3450,7 @@
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -3177,7 +3464,7 @@
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -3191,7 +3478,7 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -3219,8 +3506,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3241,16 +3528,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -3279,7 +3566,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3295,7 +3582,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -3306,10 +3593,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -3320,10 +3607,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -3334,7 +3621,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
@@ -3344,10 +3631,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -3357,17 +3644,13 @@
         <v>43639</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="6">
-        <v>43639</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0.2</v>
-      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="8"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -3381,7 +3664,7 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -3395,7 +3678,7 @@
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -3409,9 +3692,9 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="18">
         <v>43643</v>
@@ -3423,7 +3706,7 @@
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -3437,7 +3720,7 @@
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -3451,263 +3734,7 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="18">
-        <v>43646</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A8:A15"/>
-  </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6">
-        <v>43647</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6">
-        <v>43648</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="23"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6">
-        <v>43649</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="24"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="12">
-        <v>43650</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="12">
-        <v>43639</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6">
-        <v>43640</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6">
-        <v>43641</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="12">
-        <v>43642</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="18">
-        <v>43643</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="18">
-        <v>43644</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="18">
-        <v>43645</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>

--- a/周青山/编码进度表—周青山 .xlsx
+++ b/周青山/编码进度表—周青山 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="13065" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="周青山 " sheetId="11" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="25">
   <si>
     <t>进度控制表-旅游网的设计与实现</t>
   </si>
@@ -82,6 +82,9 @@
     <t>旅游线路展示</t>
   </si>
   <si>
+    <t>k</t>
+  </si>
+  <si>
     <t>团购页面按开团时间分页显示</t>
   </si>
   <si>
@@ -102,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -161,6 +164,56 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -170,7 +223,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -178,10 +239,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -193,7 +282,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,42 +311,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,8 +337,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -273,31 +362,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -309,78 +377,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -405,6 +402,12 @@
     <font>
       <sz val="11"/>
       <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -436,7 +439,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,13 +499,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,25 +523,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,19 +571,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,19 +631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,49 +643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,67 +655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,32 +739,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,16 +779,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="63"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color indexed="63"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color indexed="63"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color indexed="63"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,17 +798,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,26 +817,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
       </top>
       <bottom style="double">
-        <color indexed="63"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,22 +847,18 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="44"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,20 +883,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,220 +948,220 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="42" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="43" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1642,20 +1645,20 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3796296296296" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1821,12 +1824,14 @@
         <v>0.7</v>
       </c>
       <c r="G10" s="11"/>
-      <c r="H10" s="16"/>
+      <c r="H10" s="16" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="9">
         <v>43642</v>
@@ -1844,7 +1849,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="19">
         <v>43643</v>
@@ -1862,7 +1867,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="19">
         <v>43644</v>
@@ -1876,7 +1881,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="19">
         <v>43645</v>
@@ -1890,7 +1895,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="19">
         <v>43646</v>
@@ -1927,16 +1932,16 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3796296296296" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2093,7 +2098,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="9">
         <v>43642</v>
@@ -2107,7 +2112,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="19">
         <v>43643</v>
@@ -2121,7 +2126,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="19">
         <v>43644</v>
@@ -2135,7 +2140,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="19">
         <v>43645</v>
@@ -2149,7 +2154,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="19">
         <v>43646</v>
@@ -2183,16 +2188,16 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3796296296296" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2367,7 +2372,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="9">
         <v>43642</v>
@@ -2387,7 +2392,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="19">
         <v>43643</v>
@@ -2401,7 +2406,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="19">
         <v>43644</v>
@@ -2415,7 +2420,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="19">
         <v>43645</v>
@@ -2429,7 +2434,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="19">
         <v>43646</v>
@@ -2459,20 +2464,20 @@
   <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3796296296296" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2641,7 +2646,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="9">
         <v>43642</v>
@@ -2655,7 +2660,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="19">
         <v>43643</v>
@@ -2669,7 +2674,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="19">
         <v>43644</v>
@@ -2683,7 +2688,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="19">
         <v>43645</v>
@@ -2697,7 +2702,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="19">
         <v>43646</v>
@@ -2728,19 +2733,19 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3796296296296" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2880,9 +2885,15 @@
       <c r="C9" s="9">
         <v>43640</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
+      <c r="D9" s="9">
+        <v>43640</v>
+      </c>
+      <c r="E9" s="9">
+        <v>43640</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.9</v>
+      </c>
       <c r="G9" s="11"/>
       <c r="H9" s="17"/>
     </row>
@@ -2894,44 +2905,62 @@
       <c r="C10" s="9">
         <v>43641</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="9">
+        <v>43641</v>
+      </c>
+      <c r="E10" s="9">
+        <v>43641</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.8</v>
+      </c>
       <c r="G10" s="11"/>
       <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="9">
         <v>43642</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
+      <c r="D11" s="9">
+        <v>43642</v>
+      </c>
+      <c r="E11" s="9">
+        <v>43642</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.9</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="19">
         <v>43643</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="D12" s="9">
+        <v>43642</v>
+      </c>
+      <c r="E12" s="9">
+        <v>43642</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.5</v>
+      </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="19">
         <v>43644</v>
@@ -2945,7 +2974,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="19">
         <v>43645</v>
@@ -2959,7 +2988,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="19">
         <v>43646</v>
@@ -2993,16 +3022,16 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3796296296296" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -3166,7 +3195,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="9">
         <v>43642</v>
@@ -3182,7 +3211,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="19">
         <v>43643</v>
@@ -3198,7 +3227,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="19">
         <v>43644</v>
@@ -3212,7 +3241,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="19">
         <v>43645</v>
@@ -3226,7 +3255,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="19">
         <v>43646</v>
@@ -3260,16 +3289,16 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3796296296296" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -3430,7 +3459,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="9">
         <v>43642</v>
@@ -3444,7 +3473,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="19">
         <v>43643</v>
@@ -3458,7 +3487,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="19">
         <v>43644</v>
@@ -3472,7 +3501,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="19">
         <v>43645</v>
@@ -3486,7 +3515,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="19">
         <v>43646</v>
@@ -3520,16 +3549,16 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3796296296296" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -3686,7 +3715,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="9">
         <v>43642</v>
@@ -3700,7 +3729,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="19">
         <v>43643</v>
@@ -3714,7 +3743,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="19">
         <v>43644</v>
@@ -3728,7 +3757,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="19">
         <v>43645</v>
@@ -3742,7 +3771,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="19">
         <v>43646</v>
@@ -3776,16 +3805,16 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3796296296296" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -3946,7 +3975,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="9">
         <v>43642</v>
@@ -3960,7 +3989,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="19">
         <v>43643</v>
@@ -3974,7 +4003,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="19">
         <v>43644</v>
@@ -3988,7 +4017,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="19">
         <v>43645</v>
@@ -4002,7 +4031,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="19">
         <v>43646</v>
@@ -4036,16 +4065,16 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3796296296296" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -4202,7 +4231,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="9">
         <v>43642</v>
@@ -4216,7 +4245,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="19">
         <v>43643</v>
@@ -4230,7 +4259,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="19">
         <v>43644</v>
@@ -4244,7 +4273,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="19">
         <v>43645</v>
@@ -4258,7 +4287,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="19">
         <v>43646</v>

--- a/周青山/编码进度表—周青山 .xlsx
+++ b/周青山/编码进度表—周青山 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="周青山 " sheetId="11" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="27">
   <si>
     <t>整体模块</t>
   </si>
@@ -117,6 +117,10 @@
   <si>
     <t>购物车添加查看删除</t>
     <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -674,7 +678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -729,6 +733,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -747,8 +754,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1119,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1137,16 +1144,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1175,7 +1182,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1191,7 +1198,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -1202,10 +1209,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -1216,10 +1223,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -1230,7 +1237,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
@@ -1240,10 +1247,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1260,10 +1267,12 @@
         <v>0.8</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="27" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1283,7 +1292,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1301,7 +1310,7 @@
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -1319,7 +1328,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
@@ -1330,14 +1339,14 @@
       <c r="E12" s="18">
         <v>43643</v>
       </c>
-      <c r="F12" s="26">
-        <v>0.3</v>
+      <c r="F12" s="20">
+        <v>0.8</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1345,13 +1354,17 @@
         <v>43644</v>
       </c>
       <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="E13" s="18">
+        <v>43644</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0.1</v>
+      </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1365,7 +1378,7 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -1400,7 +1413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1418,16 +1431,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1456,7 +1469,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1472,7 +1485,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -1483,10 +1496,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -1497,10 +1510,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -1511,7 +1524,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
@@ -1521,10 +1534,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1540,7 +1553,7 @@
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1554,7 +1567,7 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1568,7 +1581,7 @@
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -1582,7 +1595,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="10" t="s">
         <v>25</v>
       </c>
@@ -1596,7 +1609,7 @@
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1610,7 +1623,7 @@
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1624,7 +1637,7 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -1657,7 +1670,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1674,16 +1687,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1712,7 +1725,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1728,7 +1741,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -1739,10 +1752,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -1753,10 +1766,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -1767,7 +1780,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
@@ -1777,10 +1790,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1802,7 +1815,7 @@
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1810,13 +1823,15 @@
         <v>43640</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6">
+        <v>43640</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1824,13 +1839,15 @@
         <v>43641</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6">
+        <v>43641</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -1838,13 +1855,15 @@
         <v>43642</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12">
+        <v>43642</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
@@ -1852,13 +1871,15 @@
         <v>43643</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="E12" s="18">
+        <v>43643</v>
+      </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1866,13 +1887,15 @@
         <v>43644</v>
       </c>
       <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="18">
+        <v>43644</v>
+      </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1886,7 +1909,7 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -1919,7 +1942,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1936,16 +1959,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1974,7 +1997,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1990,7 +2013,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -2001,10 +2024,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -2015,10 +2038,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -2029,7 +2052,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
@@ -2039,10 +2062,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2062,7 +2085,7 @@
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -2070,13 +2093,15 @@
         <v>43640</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6">
+        <v>43640</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -2084,13 +2109,15 @@
         <v>43641</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6">
+        <v>43641</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -2098,13 +2125,15 @@
         <v>43642</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12">
+        <v>43642</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
@@ -2112,13 +2141,15 @@
         <v>43643</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="E12" s="18">
+        <v>43643</v>
+      </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -2126,13 +2157,15 @@
         <v>43644</v>
       </c>
       <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="18">
+        <v>43644</v>
+      </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2146,7 +2179,7 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2179,7 +2212,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2196,16 +2229,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -2234,7 +2267,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2250,7 +2283,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -2261,10 +2294,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -2275,10 +2308,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -2289,7 +2322,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
@@ -2299,10 +2332,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2324,7 +2357,7 @@
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -2332,13 +2365,15 @@
         <v>43640</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6">
+        <v>43640</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -2346,13 +2381,15 @@
         <v>43641</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6">
+        <v>43641</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -2360,13 +2397,15 @@
         <v>43642</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12">
+        <v>43642</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
@@ -2374,13 +2413,15 @@
         <v>43643</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="E12" s="18">
+        <v>43643</v>
+      </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -2388,13 +2429,15 @@
         <v>43644</v>
       </c>
       <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="18">
+        <v>43644</v>
+      </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2408,7 +2451,7 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2440,7 +2483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2458,16 +2501,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -2496,7 +2539,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2512,7 +2555,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -2523,10 +2566,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -2537,10 +2580,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -2551,7 +2594,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
@@ -2561,10 +2604,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2583,7 +2626,7 @@
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -2599,7 +2642,7 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -2615,7 +2658,7 @@
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -2631,7 +2674,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
@@ -2647,7 +2690,7 @@
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -2661,7 +2704,7 @@
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2675,7 +2718,7 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2708,7 +2751,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2725,16 +2768,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -2763,7 +2806,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2779,7 +2822,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -2790,10 +2833,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -2804,10 +2847,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -2818,7 +2861,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
@@ -2828,10 +2871,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2851,7 +2894,7 @@
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -2859,13 +2902,15 @@
         <v>43640</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6">
+        <v>43640</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -2873,13 +2918,15 @@
         <v>43641</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6">
+        <v>43641</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -2887,13 +2934,15 @@
         <v>43642</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12">
+        <v>43642</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
@@ -2901,13 +2950,15 @@
         <v>43643</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="E12" s="18">
+        <v>43643</v>
+      </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -2915,13 +2966,15 @@
         <v>43644</v>
       </c>
       <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="18">
+        <v>43644</v>
+      </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2935,7 +2988,7 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2985,16 +3038,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -3023,7 +3076,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3039,7 +3092,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -3050,10 +3103,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -3064,10 +3117,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -3078,7 +3131,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
@@ -3088,10 +3141,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -3107,7 +3160,7 @@
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -3121,7 +3174,7 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -3135,7 +3188,7 @@
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -3149,7 +3202,7 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
@@ -3163,7 +3216,7 @@
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -3177,7 +3230,7 @@
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -3191,7 +3244,7 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -3224,7 +3277,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3241,16 +3294,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -3279,7 +3332,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3295,7 +3348,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -3306,10 +3359,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -3320,10 +3373,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -3334,7 +3387,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
@@ -3344,10 +3397,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -3367,7 +3420,7 @@
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -3375,13 +3428,15 @@
         <v>43640</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6">
+        <v>43640</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -3389,13 +3444,15 @@
         <v>43641</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6">
+        <v>43641</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -3403,13 +3460,15 @@
         <v>43642</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12">
+        <v>43642</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
@@ -3417,13 +3476,15 @@
         <v>43643</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="E12" s="18">
+        <v>43643</v>
+      </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -3431,13 +3492,15 @@
         <v>43644</v>
       </c>
       <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="18">
+        <v>43644</v>
+      </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -3451,7 +3514,7 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -3484,7 +3547,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E8" sqref="E8:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3501,16 +3564,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -3539,7 +3602,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3555,7 +3618,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -3566,10 +3629,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="23"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -3580,10 +3643,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -3594,7 +3657,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
@@ -3604,10 +3667,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -3617,13 +3680,15 @@
         <v>43639</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="12"/>
+      <c r="E8" s="12">
+        <v>43639</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -3631,13 +3696,15 @@
         <v>43640</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6">
+        <v>43640</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -3645,13 +3712,15 @@
         <v>43641</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6">
+        <v>43641</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -3659,13 +3728,15 @@
         <v>43642</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12">
+        <v>43642</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
@@ -3673,13 +3744,15 @@
         <v>43643</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="E12" s="18">
+        <v>43643</v>
+      </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -3687,13 +3760,15 @@
         <v>43644</v>
       </c>
       <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="18">
+        <v>43644</v>
+      </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -3707,7 +3782,7 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>

--- a/周青山/编码进度表—周青山 .xlsx
+++ b/周青山/编码进度表—周青山 .xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\hgkj_02\周青山\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AEC6C7-9E22-4FCD-823F-1FCDA1D52FE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="3135" yWindow="1680" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周青山 " sheetId="11" r:id="rId1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="28">
   <si>
     <t>整体模块</t>
   </si>
@@ -122,11 +128,15 @@
     <t>c</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
+  <si>
+    <t>图片未显示</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -759,37 +769,40 @@
     </xf>
   </cellXfs>
   <cellStyles count="25">
-    <cellStyle name="20% - 着色 5" xfId="4"/>
-    <cellStyle name="40% - 着色 4" xfId="7"/>
-    <cellStyle name="40% - 着色 5" xfId="9"/>
-    <cellStyle name="60% - 着色 2" xfId="2"/>
-    <cellStyle name="标题 1 2" xfId="3"/>
-    <cellStyle name="标题 2 2" xfId="11"/>
-    <cellStyle name="标题 3 2" xfId="12"/>
-    <cellStyle name="标题 4 2" xfId="13"/>
-    <cellStyle name="标题 5" xfId="14"/>
-    <cellStyle name="差 2" xfId="15"/>
+    <cellStyle name="20% - 着色 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="40% - 着色 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="40% - 着色 5" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="60% - 着色 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="标题 1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="标题 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="标题 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="标题 4 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="标题 5" xfId="14" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="差 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="16"/>
-    <cellStyle name="好 2" xfId="17"/>
-    <cellStyle name="汇总 2" xfId="18"/>
-    <cellStyle name="计算 2" xfId="1"/>
-    <cellStyle name="检查单元格 2" xfId="19"/>
-    <cellStyle name="解释性文本 2" xfId="20"/>
-    <cellStyle name="警告文本 2" xfId="21"/>
-    <cellStyle name="链接单元格 2" xfId="22"/>
-    <cellStyle name="适中 2" xfId="10"/>
-    <cellStyle name="输出 2" xfId="6"/>
-    <cellStyle name="输入 2" xfId="23"/>
-    <cellStyle name="着色 1" xfId="5"/>
-    <cellStyle name="着色 5" xfId="8"/>
-    <cellStyle name="注释 2" xfId="24"/>
+    <cellStyle name="常规 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="好 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="汇总 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="计算 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="检查单元格 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="解释性文本 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="警告文本 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="链接单元格 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="适中 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="输出 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="输入 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="着色 1" xfId="5" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="着色 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="注释 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1123,10 +1136,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1410,7 +1423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1666,11 +1679,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1822,13 +1835,17 @@
       <c r="C9" s="6">
         <v>43640</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="6">
         <v>43640</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7">
+        <v>0.9</v>
+      </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="15"/>
+      <c r="H9" s="19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
@@ -1838,13 +1855,17 @@
       <c r="C10" s="6">
         <v>43641</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="6">
         <v>43641</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7">
+        <v>0.9</v>
+      </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="14"/>
+      <c r="H10" s="19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="27"/>
@@ -1858,9 +1879,13 @@
       <c r="E11" s="12">
         <v>43642</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7">
+        <v>0.9</v>
+      </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="16"/>
+      <c r="H11" s="19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
@@ -1870,13 +1895,17 @@
       <c r="C12" s="18">
         <v>43643</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="18">
         <v>43643</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="7">
+        <v>0.9</v>
+      </c>
       <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="H12" s="19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
@@ -1886,10 +1915,8 @@
       <c r="C13" s="18">
         <v>43644</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18">
-        <v>43644</v>
-      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -1938,7 +1965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2208,7 +2235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2480,7 +2507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2747,7 +2774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3017,7 +3044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3273,7 +3300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3543,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/周青山/编码进度表—周青山 .xlsx
+++ b/周青山/编码进度表—周青山 .xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="28">
   <si>
     <t>整体模块</t>
   </si>
@@ -120,6 +120,10 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -1126,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1358,7 +1362,7 @@
         <v>43644</v>
       </c>
       <c r="F13" s="20">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -1372,8 +1376,12 @@
         <v>43645</v>
       </c>
       <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="E14" s="18">
+        <v>43645</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0.8</v>
+      </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
@@ -1386,10 +1394,16 @@
         <v>43646</v>
       </c>
       <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="18">
+        <v>43646</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0.1</v>
+      </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="H15" s="17" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>

--- a/周青山/编码进度表—周青山 .xlsx
+++ b/周青山/编码进度表—周青山 .xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\hgkj_02\周青山\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E764A7E-B0A0-4C99-9031-F52695C5E8E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周青山 " sheetId="11" r:id="rId1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="30">
   <si>
     <t>整体模块</t>
   </si>
@@ -126,11 +132,18 @@
     <t>l</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
+  <si>
+    <t>图片未显示，28号解决该问题</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加多个游客有问题，29号解决问题</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -763,37 +776,40 @@
     </xf>
   </cellXfs>
   <cellStyles count="25">
-    <cellStyle name="20% - 着色 5" xfId="4"/>
-    <cellStyle name="40% - 着色 4" xfId="7"/>
-    <cellStyle name="40% - 着色 5" xfId="9"/>
-    <cellStyle name="60% - 着色 2" xfId="2"/>
-    <cellStyle name="标题 1 2" xfId="3"/>
-    <cellStyle name="标题 2 2" xfId="11"/>
-    <cellStyle name="标题 3 2" xfId="12"/>
-    <cellStyle name="标题 4 2" xfId="13"/>
-    <cellStyle name="标题 5" xfId="14"/>
-    <cellStyle name="差 2" xfId="15"/>
+    <cellStyle name="20% - 着色 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="40% - 着色 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="40% - 着色 5" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="60% - 着色 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="标题 1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="标题 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="标题 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="标题 4 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="标题 5" xfId="14" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="差 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="16"/>
-    <cellStyle name="好 2" xfId="17"/>
-    <cellStyle name="汇总 2" xfId="18"/>
-    <cellStyle name="计算 2" xfId="1"/>
-    <cellStyle name="检查单元格 2" xfId="19"/>
-    <cellStyle name="解释性文本 2" xfId="20"/>
-    <cellStyle name="警告文本 2" xfId="21"/>
-    <cellStyle name="链接单元格 2" xfId="22"/>
-    <cellStyle name="适中 2" xfId="10"/>
-    <cellStyle name="输出 2" xfId="6"/>
-    <cellStyle name="输入 2" xfId="23"/>
-    <cellStyle name="着色 1" xfId="5"/>
-    <cellStyle name="着色 5" xfId="8"/>
-    <cellStyle name="注释 2" xfId="24"/>
+    <cellStyle name="常规 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="好 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="汇总 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="计算 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="检查单元格 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="解释性文本 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="警告文本 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="链接单元格 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="适中 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="输出 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="输入 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="着色 1" xfId="5" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="着色 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="注释 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1127,10 +1143,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -1424,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1680,11 +1696,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1836,13 +1852,19 @@
       <c r="C9" s="6">
         <v>43640</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="18">
+        <v>43644</v>
+      </c>
       <c r="E9" s="6">
         <v>43640</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="15"/>
+      <c r="H9" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
@@ -1852,13 +1874,19 @@
       <c r="C10" s="6">
         <v>43641</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="18">
+        <v>43644</v>
+      </c>
       <c r="E10" s="6">
         <v>43641</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="14"/>
+      <c r="H10" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="27"/>
@@ -1868,13 +1896,19 @@
       <c r="C11" s="12">
         <v>43642</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="18">
+        <v>43644</v>
+      </c>
       <c r="E11" s="12">
         <v>43642</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="16"/>
+      <c r="H11" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
@@ -1884,13 +1918,19 @@
       <c r="C12" s="18">
         <v>43643</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="18">
+        <v>43644</v>
+      </c>
       <c r="E12" s="18">
         <v>43643</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
       <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="H12" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
@@ -1900,13 +1940,19 @@
       <c r="C13" s="18">
         <v>43644</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="18">
+        <v>43645</v>
+      </c>
       <c r="E13" s="18">
         <v>43644</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
       <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="H13" s="19" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
@@ -1916,9 +1962,15 @@
       <c r="C14" s="18">
         <v>43645</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="D14" s="18">
+        <v>43645</v>
+      </c>
+      <c r="E14" s="18">
+        <v>43645</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
@@ -1952,7 +2004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2222,7 +2274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2494,7 +2546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2761,7 +2813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3031,7 +3083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3287,7 +3339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3557,7 +3609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/周青山/编码进度表—周青山 .xlsx
+++ b/周青山/编码进度表—周青山 .xlsx
@@ -1131,7 +1131,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1398,7 +1398,7 @@
         <v>43646</v>
       </c>
       <c r="F15" s="20">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17" t="s">

--- a/周青山/编码进度表—周青山 .xlsx
+++ b/周青山/编码进度表—周青山 .xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\hgkj_02\周青山\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4439DE76-CE4C-4774-930A-5D80BC649A8B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周青山 " sheetId="11" r:id="rId1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="32">
   <si>
     <t>整体模块</t>
   </si>
@@ -130,11 +136,22 @@
     <t>fddf</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
+  <si>
+    <t>图片未显示，28号解决该问题</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加多个游客有问题，29号解决问题</t>
+  </si>
+  <si>
+    <t>登录完成</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -686,7 +703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -765,39 +782,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="25">
-    <cellStyle name="20% - 着色 5" xfId="4"/>
-    <cellStyle name="40% - 着色 4" xfId="7"/>
-    <cellStyle name="40% - 着色 5" xfId="9"/>
-    <cellStyle name="60% - 着色 2" xfId="2"/>
-    <cellStyle name="标题 1 2" xfId="3"/>
-    <cellStyle name="标题 2 2" xfId="11"/>
-    <cellStyle name="标题 3 2" xfId="12"/>
-    <cellStyle name="标题 4 2" xfId="13"/>
-    <cellStyle name="标题 5" xfId="14"/>
-    <cellStyle name="差 2" xfId="15"/>
+    <cellStyle name="20% - 着色 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="40% - 着色 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="40% - 着色 5" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="60% - 着色 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="标题 1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="标题 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="标题 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="标题 4 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="标题 5" xfId="14" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="差 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="16"/>
-    <cellStyle name="好 2" xfId="17"/>
-    <cellStyle name="汇总 2" xfId="18"/>
-    <cellStyle name="计算 2" xfId="1"/>
-    <cellStyle name="检查单元格 2" xfId="19"/>
-    <cellStyle name="解释性文本 2" xfId="20"/>
-    <cellStyle name="警告文本 2" xfId="21"/>
-    <cellStyle name="链接单元格 2" xfId="22"/>
-    <cellStyle name="适中 2" xfId="10"/>
-    <cellStyle name="输出 2" xfId="6"/>
-    <cellStyle name="输入 2" xfId="23"/>
-    <cellStyle name="着色 1" xfId="5"/>
-    <cellStyle name="着色 5" xfId="8"/>
-    <cellStyle name="注释 2" xfId="24"/>
+    <cellStyle name="常规 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="好 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="汇总 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="计算 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="检查单元格 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="解释性文本 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="警告文本 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="链接单元格 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="适中 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="输出 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="输入 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="着色 1" xfId="5" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="着色 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="注释 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1131,7 +1154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
@@ -1430,7 +1453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1686,11 +1709,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1755,9 +1778,15 @@
         <v>43647</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
+      <c r="E3" s="18">
+        <v>43646</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>31</v>
+      </c>
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1831,8 +1860,8 @@
       <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="14"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27"/>
@@ -1842,13 +1871,19 @@
       <c r="C9" s="6">
         <v>43640</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="18">
+        <v>43644</v>
+      </c>
       <c r="E9" s="6">
         <v>43640</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="15"/>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="19" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
@@ -1858,13 +1893,19 @@
       <c r="C10" s="6">
         <v>43641</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="18">
+        <v>43644</v>
+      </c>
       <c r="E10" s="6">
         <v>43641</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="14"/>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="19" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="27"/>
@@ -1874,13 +1915,19 @@
       <c r="C11" s="12">
         <v>43642</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12">
+      <c r="D11" s="18">
+        <v>43644</v>
+      </c>
+      <c r="E11" s="6">
         <v>43642</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="16"/>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="19" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
@@ -1890,13 +1937,19 @@
       <c r="C12" s="18">
         <v>43643</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="18">
+        <v>43644</v>
+      </c>
       <c r="E12" s="18">
         <v>43643</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
       <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="H12" s="19" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
@@ -1906,13 +1959,19 @@
       <c r="C13" s="18">
         <v>43644</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="18">
+        <v>43645</v>
+      </c>
       <c r="E13" s="18">
         <v>43644</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
       <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="H13" s="19" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
@@ -1922,9 +1981,15 @@
       <c r="C14" s="18">
         <v>43645</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="D14" s="18">
+        <v>43645</v>
+      </c>
+      <c r="E14" s="18">
+        <v>43645</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
@@ -1936,9 +2001,15 @@
       <c r="C15" s="18">
         <v>43646</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="D15" s="18">
+        <v>43646</v>
+      </c>
+      <c r="E15" s="18">
+        <v>43646</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
     </row>
@@ -1958,7 +2029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2228,7 +2299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2500,7 +2571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2767,7 +2838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3037,7 +3108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3293,7 +3364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3563,7 +3634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/周青山/编码进度表—周青山 .xlsx
+++ b/周青山/编码进度表—周青山 .xlsx
@@ -120,12 +120,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -180,9 +180,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,20 +190,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,32 +201,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,10 +210,51 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -262,83 +265,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -357,8 +285,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,16 +317,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,9 +370,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -421,8 +390,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -435,12 +416,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,13 +454,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,43 +586,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,13 +616,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,97 +646,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,49 +670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,19 +682,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,17 +754,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,11 +778,87 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,23 +890,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thick">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,23 +899,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
+      <bottom style="thick">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,61 +916,6 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,8 +938,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -994,220 +963,220 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="47" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="42" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1318,15 +1287,15 @@
     <cellStyle name="汇总" xfId="38" builtinId="25"/>
     <cellStyle name="40% - 着色 5" xfId="39"/>
     <cellStyle name="好" xfId="40" builtinId="26"/>
-    <cellStyle name="着色 5" xfId="41"/>
-    <cellStyle name="适中" xfId="42" builtinId="28"/>
+    <cellStyle name="适中" xfId="41" builtinId="28"/>
+    <cellStyle name="着色 5" xfId="42"/>
     <cellStyle name="标题 1 2" xfId="43"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="44" builtinId="46"/>
     <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="46" builtinId="30"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="输出 2" xfId="48"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="49" builtinId="34"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="48" builtinId="34"/>
+    <cellStyle name="输出 2" xfId="49"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="50" builtinId="35"/>
     <cellStyle name="强调文字颜色 3" xfId="51" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
@@ -1336,8 +1305,8 @@
     <cellStyle name="40% - 强调文字颜色 5" xfId="56" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="适中 2" xfId="59"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="59" builtinId="51"/>
+    <cellStyle name="适中 2" xfId="60"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
     <cellStyle name="标题 2 2" xfId="62"/>
     <cellStyle name="标题 3 2" xfId="63"/>
@@ -2564,13 +2533,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
@@ -2745,7 +2714,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
         <v>21</v>
@@ -2762,6 +2731,9 @@
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="18"/>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>

--- a/周青山/编码进度表—周青山 .xlsx
+++ b/周青山/编码进度表—周青山 .xlsx
@@ -120,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -180,16 +180,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,13 +209,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="52"/>
@@ -216,45 +217,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="54"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -265,37 +247,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="54"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,15 +278,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,24 +320,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
-      <color theme="3"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,11 +347,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -390,9 +391,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -454,7 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,7 +472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,13 +484,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,31 +562,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,31 +592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,55 +610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,7 +628,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,13 +646,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,11 +754,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,6 +784,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -789,6 +804,15 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,20 +834,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,33 +869,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color indexed="63"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color indexed="63"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color indexed="63"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -905,17 +911,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,196 +963,196 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1173,7 +1173,7 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="42" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="42" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="43" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -2533,10 +2533,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2714,7 +2714,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="13" t="s">
         <v>21</v>
@@ -2731,9 +2731,6 @@
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="18"/>
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
@@ -2747,8 +2744,8 @@
       <c r="E12" s="19">
         <v>43643</v>
       </c>
-      <c r="F12" s="20">
-        <v>50</v>
+      <c r="F12" s="21">
+        <v>0.5</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -2765,8 +2762,8 @@
       <c r="E13" s="19">
         <v>43644</v>
       </c>
-      <c r="F13" s="20">
-        <v>50</v>
+      <c r="F13" s="21">
+        <v>0.5</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
@@ -2798,6 +2795,11 @@
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
+    </row>
+    <row r="21" spans="11:11">
+      <c r="K21" s="2">
+        <v>12323</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/周青山/编码进度表—周青山 .xlsx
+++ b/周青山/编码进度表—周青山 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\hgkj_02\周青山\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zhuomian\hgkj_02\周青山\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4439DE76-CE4C-4774-930A-5D80BC649A8B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7DBC16-244E-4B0D-BF48-EB16DE2776E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周青山 " sheetId="11" r:id="rId1"/>
@@ -764,6 +764,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -781,9 +784,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1157,36 +1157,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1212,8 +1212,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1228,8 +1228,8 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -1240,10 +1240,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -1254,10 +1254,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="28"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -1268,9 +1268,9 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="26"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -1278,10 +1278,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1302,8 +1302,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1322,8 +1322,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1342,8 +1342,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -1360,8 +1360,8 @@
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
@@ -1378,8 +1378,8 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1396,8 +1396,8 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1414,8 +1414,8 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="28"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
     </row>
   </sheetData>
@@ -1460,32 +1460,32 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1511,8 +1511,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1527,8 +1527,8 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -1539,10 +1539,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -1553,10 +1553,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="28"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -1567,9 +1567,9 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="26"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -1577,10 +1577,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1595,8 +1595,8 @@
       <c r="G8" s="8"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1609,8 +1609,8 @@
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1623,8 +1623,8 @@
       <c r="G10" s="8"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -1637,8 +1637,8 @@
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
         <v>25</v>
       </c>
@@ -1651,8 +1651,8 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1665,8 +1665,8 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1679,8 +1679,8 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="28"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -1716,32 +1716,32 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1767,8 +1767,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1784,13 +1784,13 @@
       <c r="F3" s="7">
         <v>0.5</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="22" t="s">
         <v>31</v>
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -1801,10 +1801,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -1815,10 +1815,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="28"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -1829,9 +1829,9 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="26"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -1839,10 +1839,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1860,11 +1860,11 @@
       <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="28"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1880,13 +1880,13 @@
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="28"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1902,13 +1902,13 @@
       <c r="F10" s="7">
         <v>1</v>
       </c>
-      <c r="G10" s="28"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -1924,13 +1924,13 @@
       <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
@@ -1951,8 +1951,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1973,8 +1973,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1993,8 +1993,8 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="28"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2033,35 +2033,35 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2087,8 +2087,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2103,8 +2103,8 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -2115,10 +2115,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -2129,10 +2129,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="28"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -2143,9 +2143,9 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="26"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -2153,10 +2153,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2175,8 +2175,8 @@
       <c r="G8" s="8"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -2191,8 +2191,8 @@
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -2207,8 +2207,8 @@
       <c r="G10" s="8"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -2223,8 +2223,8 @@
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
@@ -2239,8 +2239,8 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -2255,8 +2255,8 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2269,8 +2269,8 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="28"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2306,32 +2306,32 @@
       <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2357,8 +2357,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2373,8 +2373,8 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -2385,10 +2385,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -2399,10 +2399,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="28"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -2413,9 +2413,9 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="26"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -2423,10 +2423,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2447,8 +2447,8 @@
       <c r="G8" s="8"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -2463,8 +2463,8 @@
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -2479,8 +2479,8 @@
       <c r="G10" s="8"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -2495,8 +2495,8 @@
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
@@ -2511,8 +2511,8 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -2527,8 +2527,8 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2541,8 +2541,8 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="28"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2574,36 +2574,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2629,8 +2629,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2645,8 +2645,8 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -2657,10 +2657,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -2671,10 +2671,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="28"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -2685,9 +2685,9 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="26"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -2695,10 +2695,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2716,8 +2716,8 @@
       <c r="G8" s="8"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -2728,12 +2728,14 @@
       <c r="E9" s="6">
         <v>43640</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7">
+        <v>0.2</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -2748,8 +2750,8 @@
       <c r="G10" s="8"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -2764,8 +2766,8 @@
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
@@ -2780,8 +2782,8 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -2789,13 +2791,15 @@
         <v>43644</v>
       </c>
       <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="18">
+        <v>43644</v>
+      </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -2803,13 +2807,15 @@
         <v>43645</v>
       </c>
       <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="E14" s="18">
+        <v>43645</v>
+      </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="28"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2817,7 +2823,9 @@
         <v>43646</v>
       </c>
       <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="E15" s="18">
+        <v>43646</v>
+      </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -2845,32 +2853,32 @@
       <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2896,8 +2904,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2912,8 +2920,8 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -2924,10 +2932,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -2938,10 +2946,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="28"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -2952,9 +2960,9 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="26"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -2962,10 +2970,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2984,8 +2992,8 @@
       <c r="G8" s="8"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -3000,8 +3008,8 @@
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -3016,8 +3024,8 @@
       <c r="G10" s="8"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -3032,8 +3040,8 @@
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
@@ -3048,8 +3056,8 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -3064,8 +3072,8 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -3078,8 +3086,8 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="28"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -3115,32 +3123,32 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3166,8 +3174,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3182,8 +3190,8 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -3194,10 +3202,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -3208,10 +3216,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="28"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -3222,9 +3230,9 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="26"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -3232,10 +3240,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -3250,8 +3258,8 @@
       <c r="G8" s="8"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -3264,8 +3272,8 @@
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -3278,8 +3286,8 @@
       <c r="G10" s="8"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -3292,8 +3300,8 @@
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
@@ -3306,8 +3314,8 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -3320,8 +3328,8 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -3334,8 +3342,8 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="28"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -3371,32 +3379,32 @@
       <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3422,8 +3430,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3438,8 +3446,8 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -3450,10 +3458,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -3464,10 +3472,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="28"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -3478,9 +3486,9 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="26"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -3488,10 +3496,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -3510,8 +3518,8 @@
       <c r="G8" s="8"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -3526,8 +3534,8 @@
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -3542,8 +3550,8 @@
       <c r="G10" s="8"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -3558,8 +3566,8 @@
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
@@ -3574,8 +3582,8 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -3590,8 +3598,8 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -3604,8 +3612,8 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="28"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -3641,32 +3649,32 @@
       <selection activeCell="E8" sqref="E8:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3692,8 +3700,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3708,8 +3716,8 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
@@ -3720,10 +3728,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -3734,10 +3742,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="28"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -3748,9 +3756,9 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="26"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -3758,10 +3766,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -3778,8 +3786,8 @@
       <c r="G8" s="8"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -3794,8 +3802,8 @@
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -3810,8 +3818,8 @@
       <c r="G10" s="8"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -3826,8 +3834,8 @@
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
@@ -3842,8 +3850,8 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -3858,8 +3866,8 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -3872,8 +3880,8 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="28"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>

--- a/周青山/编码进度表—周青山 .xlsx
+++ b/周青山/编码进度表—周青山 .xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zhuomian\hgkj_02\周青山\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5662F0B7-5CC4-4E10-9C51-BC9084406A8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="周青山 " sheetId="11" r:id="rId1"/>
@@ -155,7 +149,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -791,31 +785,31 @@
     </xf>
   </cellXfs>
   <cellStyles count="25">
-    <cellStyle name="20% - 着色 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="40% - 着色 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="40% - 着色 5" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="60% - 着色 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="标题 1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="标题 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="标题 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="标题 4 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="标题 5" xfId="14" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="差 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - 着色 5" xfId="4"/>
+    <cellStyle name="40% - 着色 4" xfId="7"/>
+    <cellStyle name="40% - 着色 5" xfId="9"/>
+    <cellStyle name="60% - 着色 2" xfId="2"/>
+    <cellStyle name="标题 1 2" xfId="3"/>
+    <cellStyle name="标题 2 2" xfId="11"/>
+    <cellStyle name="标题 3 2" xfId="12"/>
+    <cellStyle name="标题 4 2" xfId="13"/>
+    <cellStyle name="标题 5" xfId="14"/>
+    <cellStyle name="差 2" xfId="15"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="好 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="汇总 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="计算 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="检查单元格 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="解释性文本 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="警告文本 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="链接单元格 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="适中 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="输出 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="输入 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="着色 1" xfId="5" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="着色 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="注释 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="常规 2" xfId="16"/>
+    <cellStyle name="好 2" xfId="17"/>
+    <cellStyle name="汇总 2" xfId="18"/>
+    <cellStyle name="计算 2" xfId="1"/>
+    <cellStyle name="检查单元格 2" xfId="19"/>
+    <cellStyle name="解释性文本 2" xfId="20"/>
+    <cellStyle name="警告文本 2" xfId="21"/>
+    <cellStyle name="链接单元格 2" xfId="22"/>
+    <cellStyle name="适中 2" xfId="10"/>
+    <cellStyle name="输出 2" xfId="6"/>
+    <cellStyle name="输入 2" xfId="23"/>
+    <cellStyle name="着色 1" xfId="5"/>
+    <cellStyle name="着色 5" xfId="8"/>
+    <cellStyle name="注释 2" xfId="24"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -1158,27 +1152,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
@@ -1190,7 +1184,7 @@
       <c r="G1" s="24"/>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>19</v>
       </c>
@@ -1227,12 +1221,16 @@
         <v>43647</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="6">
+        <v>43647</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
@@ -1246,7 +1244,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
@@ -1260,7 +1258,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
@@ -1274,7 +1272,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -1284,7 +1282,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
@@ -1306,7 +1304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -1326,7 +1324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
@@ -1346,7 +1344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
@@ -1364,7 +1362,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
@@ -1382,7 +1380,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
@@ -1400,7 +1398,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
@@ -1418,7 +1416,7 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
@@ -1438,7 +1436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
     </row>
   </sheetData>
@@ -1457,27 +1455,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
@@ -1489,7 +1487,7 @@
       <c r="G1" s="24"/>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1515,7 +1513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>19</v>
       </c>
@@ -1531,7 +1529,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
@@ -1545,7 +1543,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
@@ -1559,7 +1557,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
@@ -1573,7 +1571,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -1583,7 +1581,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
@@ -1599,7 +1597,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -1613,7 +1611,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
@@ -1627,7 +1625,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
@@ -1641,7 +1639,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
         <v>25</v>
@@ -1655,7 +1653,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
@@ -1669,7 +1667,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
@@ -1683,7 +1681,7 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
@@ -1713,27 +1711,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
@@ -1745,7 +1743,7 @@
       <c r="G1" s="24"/>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +1769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>19</v>
       </c>
@@ -1793,7 +1791,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
@@ -1807,7 +1805,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
@@ -1821,7 +1819,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
@@ -1835,7 +1833,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -1845,7 +1843,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
@@ -1867,7 +1865,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -1889,7 +1887,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
@@ -1911,7 +1909,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
@@ -1933,7 +1931,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
@@ -1955,7 +1953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
@@ -1977,7 +1975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
@@ -1997,7 +1995,7 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
@@ -2033,27 +2031,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
@@ -2065,7 +2063,7 @@
       <c r="G1" s="24"/>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2091,7 +2089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>19</v>
       </c>
@@ -2107,7 +2105,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
@@ -2121,7 +2119,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
@@ -2135,7 +2133,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
@@ -2149,7 +2147,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -2159,7 +2157,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
@@ -2179,7 +2177,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -2195,7 +2193,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
@@ -2211,7 +2209,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
@@ -2227,7 +2225,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
@@ -2243,7 +2241,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
@@ -2259,7 +2257,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
@@ -2273,7 +2271,7 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
@@ -2303,27 +2301,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
@@ -2335,7 +2333,7 @@
       <c r="G1" s="24"/>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2361,7 +2359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>19</v>
       </c>
@@ -2377,7 +2375,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
@@ -2391,7 +2389,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
@@ -2405,7 +2403,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
@@ -2419,7 +2417,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -2429,7 +2427,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
@@ -2451,7 +2449,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -2467,7 +2465,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
@@ -2483,7 +2481,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
@@ -2499,7 +2497,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
@@ -2515,7 +2513,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
@@ -2531,7 +2529,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
@@ -2545,7 +2543,7 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
@@ -2575,27 +2573,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
@@ -2607,7 +2605,7 @@
       <c r="G1" s="24"/>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2633,7 +2631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>19</v>
       </c>
@@ -2649,7 +2647,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
@@ -2663,7 +2661,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
@@ -2677,7 +2675,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
@@ -2691,7 +2689,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -2701,7 +2699,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
@@ -2720,7 +2718,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -2738,7 +2736,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
@@ -2756,7 +2754,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
@@ -2772,7 +2770,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
         <v>23</v>
@@ -2788,7 +2786,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
@@ -2804,7 +2802,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
@@ -2820,7 +2818,7 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
@@ -2852,27 +2850,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
@@ -2884,7 +2882,7 @@
       <c r="G1" s="24"/>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2910,7 +2908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>19</v>
       </c>
@@ -2926,7 +2924,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
@@ -2940,7 +2938,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
@@ -2954,7 +2952,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
@@ -2968,7 +2966,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -2978,7 +2976,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
@@ -2998,7 +2996,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -3014,7 +3012,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
@@ -3030,7 +3028,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
@@ -3046,7 +3044,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
@@ -3062,7 +3060,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
@@ -3078,7 +3076,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
@@ -3092,7 +3090,7 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
@@ -3122,27 +3120,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
@@ -3154,7 +3152,7 @@
       <c r="G1" s="24"/>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3180,7 +3178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>19</v>
       </c>
@@ -3196,7 +3194,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
@@ -3210,7 +3208,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
@@ -3224,7 +3222,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
@@ -3238,7 +3236,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -3248,7 +3246,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
@@ -3264,7 +3262,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -3278,7 +3276,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
@@ -3292,7 +3290,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
@@ -3306,7 +3304,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
@@ -3320,7 +3318,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
@@ -3334,7 +3332,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
@@ -3348,7 +3346,7 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
@@ -3378,27 +3376,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
@@ -3410,7 +3408,7 @@
       <c r="G1" s="24"/>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3436,7 +3434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>19</v>
       </c>
@@ -3452,7 +3450,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
@@ -3466,7 +3464,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
@@ -3480,7 +3478,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
@@ -3494,7 +3492,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -3504,7 +3502,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
@@ -3524,7 +3522,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -3540,7 +3538,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
@@ -3556,7 +3554,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
@@ -3572,7 +3570,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
         <v>24</v>
@@ -3588,7 +3586,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
@@ -3604,7 +3602,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
@@ -3618,7 +3616,7 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
@@ -3648,27 +3646,27 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
@@ -3680,7 +3678,7 @@
       <c r="G1" s="24"/>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3706,7 +3704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>19</v>
       </c>
@@ -3722,7 +3720,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
@@ -3736,7 +3734,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="10" t="s">
         <v>10</v>
@@ -3750,7 +3748,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
@@ -3764,7 +3762,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -3774,7 +3772,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
@@ -3792,7 +3790,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -3808,7 +3806,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
@@ -3824,7 +3822,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
@@ -3840,7 +3838,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
         <v>23</v>
@@ -3856,7 +3854,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
@@ -3872,7 +3870,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
@@ -3886,7 +3884,7 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="5" t="s">
         <v>18</v>

--- a/周青山/编码进度表—周青山 .xlsx
+++ b/周青山/编码进度表—周青山 .xlsx
@@ -123,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -183,9 +183,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,42 +216,6 @@
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -245,13 +231,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,6 +251,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -285,33 +286,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,9 +324,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -350,6 +347,28 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -363,21 +382,6 @@
       <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -400,20 +404,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -426,12 +432,6 @@
     <font>
       <sz val="11"/>
       <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -457,7 +457,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,43 +607,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,13 +673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,163 +685,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,6 +758,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="23"/>
       </left>
       <right style="thin">
@@ -768,6 +792,17 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,56 +818,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,21 +840,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -877,15 +847,6 @@
       </top>
       <bottom style="double">
         <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -905,11 +866,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,7 +899,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
         <color indexed="44"/>
       </bottom>
       <diagonal/>
@@ -941,23 +923,41 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </left>
       <right style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </right>
       <top style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </top>
       <bottom style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,220 +966,220 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="42" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="43" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2540,10 +2540,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -2810,6 +2810,11 @@
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
+    </row>
+    <row r="32" spans="6:6">
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/周青山/编码进度表—周青山 .xlsx
+++ b/周青山/编码进度表—周青山 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28230" windowHeight="13065" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="周青山 " sheetId="11" r:id="rId1"/>
@@ -123,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -183,7 +183,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,24 +196,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -226,9 +217,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,17 +241,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,15 +261,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,14 +292,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,43 +338,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -371,15 +353,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="54"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -404,13 +393,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="63"/>
@@ -424,6 +406,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
@@ -432,6 +426,12 @@
     <font>
       <sz val="11"/>
       <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -457,13 +457,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,85 +583,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,13 +613,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,19 +637,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,85 +691,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,30 +758,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="23"/>
       </left>
       <right style="thin">
@@ -792,17 +768,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,8 +790,49 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,21 +857,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -881,17 +872,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,21 +886,6 @@
       <top/>
       <bottom style="medium">
         <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,6 +923,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -961,6 +946,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -972,214 +972,214 @@
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="42" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1663,20 +1663,20 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3796296296296" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1970,16 +1970,16 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3796296296296" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2226,16 +2226,16 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3796296296296" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2542,20 +2542,20 @@
   <sheetPr/>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3796296296296" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2836,19 +2836,19 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3796296296296" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2900,8 +2900,12 @@
       <c r="C3" s="9">
         <v>43647</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="D3" s="19">
+        <v>43648</v>
+      </c>
+      <c r="E3" s="19">
+        <v>43648</v>
+      </c>
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
       <c r="H3" s="12"/>
@@ -2974,8 +2978,8 @@
       <c r="E8" s="9">
         <v>43639</v>
       </c>
-      <c r="F8" s="10">
-        <v>1</v>
+      <c r="F8" s="21">
+        <v>0.9</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="16"/>
@@ -2988,12 +2992,14 @@
       <c r="C9" s="9">
         <v>43640</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="9">
+        <v>43640</v>
+      </c>
       <c r="E9" s="9">
         <v>43640</v>
       </c>
-      <c r="F9" s="10">
-        <v>0.8</v>
+      <c r="F9" s="21">
+        <v>0.9</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="17"/>
@@ -3006,12 +3012,14 @@
       <c r="C10" s="9">
         <v>43641</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9">
+        <v>43641</v>
+      </c>
       <c r="E10" s="9">
         <v>43641</v>
       </c>
-      <c r="F10" s="10">
-        <v>0.8</v>
+      <c r="F10" s="21">
+        <v>0.9</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="16"/>
@@ -3024,12 +3032,14 @@
       <c r="C11" s="9">
         <v>43642</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9">
+        <v>43642</v>
+      </c>
       <c r="E11" s="9">
         <v>43642</v>
       </c>
-      <c r="F11" s="10">
-        <v>0.8</v>
+      <c r="F11" s="21">
+        <v>0.9</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="18"/>
@@ -3042,12 +3052,14 @@
       <c r="C12" s="19">
         <v>43643</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="19">
+        <v>43643</v>
+      </c>
       <c r="E12" s="19">
         <v>43643</v>
       </c>
       <c r="F12" s="21">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -3060,7 +3072,9 @@
       <c r="C13" s="19">
         <v>43644</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="19">
+        <v>43644</v>
+      </c>
       <c r="E13" s="19">
         <v>43644</v>
       </c>
@@ -3078,9 +3092,15 @@
       <c r="C14" s="19">
         <v>43645</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="D14" s="19">
+        <v>43647</v>
+      </c>
+      <c r="E14" s="19">
+        <v>43647</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0.9</v>
+      </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
     </row>
@@ -3092,9 +3112,15 @@
       <c r="C15" s="19">
         <v>43646</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="D15" s="19">
+        <v>43648</v>
+      </c>
+      <c r="E15" s="19">
+        <v>43648</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0.9</v>
+      </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
     </row>
@@ -3121,16 +3147,16 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3796296296296" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -3398,16 +3424,16 @@
       <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3796296296296" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -3668,16 +3694,16 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3796296296296" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -3924,16 +3950,16 @@
       <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3796296296296" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -4194,16 +4220,16 @@
       <selection activeCell="E8" sqref="E8:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.3796296296296" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>

--- a/周青山/编码进度表—周青山 .xlsx
+++ b/周青山/编码进度表—周青山 .xlsx
@@ -123,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -185,58 +185,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,7 +212,93 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,30 +313,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,8 +327,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,21 +373,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -347,20 +384,6 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -371,13 +394,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
@@ -385,21 +401,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="54"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -407,19 +414,6 @@
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -432,6 +426,12 @@
     <font>
       <sz val="11"/>
       <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -469,7 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,7 +487,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,13 +601,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,67 +649,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,19 +667,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,85 +691,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,6 +758,60 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -781,21 +835,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -807,46 +846,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
+      <bottom style="thick">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,6 +870,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -881,26 +914,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="44"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,41 +941,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </top>
       <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,220 +966,220 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="42" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2543,7 +2543,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -2626,7 +2626,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="10">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="14"/>
@@ -2641,7 +2641,9 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10">
+        <v>0.5</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
@@ -2756,7 +2758,7 @@
         <v>43643</v>
       </c>
       <c r="F12" s="21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -2774,7 +2776,7 @@
         <v>43644</v>
       </c>
       <c r="F13" s="21">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>

--- a/周青山/编码进度表—周青山 .xlsx
+++ b/周青山/编码进度表—周青山 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zhuomian\hgkj_02\周青山\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\hgkj_02\周青山\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6448A9-9687-4FE5-9473-870C76B520B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B45480D-27CD-4871-B1FC-D84CD5B6228F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周青山 " sheetId="11" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>查看删除历史订单</t>
   </si>
   <si>
-    <t>线路的修改失败，删除未做</t>
-  </si>
-  <si>
     <t>图片未显示，28号解决该问题</t>
   </si>
   <si>
@@ -111,12 +108,16 @@
   <si>
     <t>ee</t>
   </si>
+  <si>
+    <t>团购信息的查看已做</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -294,6 +295,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -640,7 +648,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -711,6 +719,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1089,20 +1100,20 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1125,7 @@
       <c r="G1" s="21"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1140,7 +1151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
@@ -1160,7 +1171,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -1178,7 +1189,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
@@ -1196,7 +1207,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
@@ -1212,7 +1223,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -1222,7 +1233,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>14</v>
       </c>
@@ -1242,7 +1253,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -1260,7 +1271,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -1278,7 +1289,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -1296,7 +1307,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -1314,7 +1325,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
@@ -1332,7 +1343,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -1350,7 +1361,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
@@ -1368,7 +1379,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
     </row>
   </sheetData>
@@ -1394,20 +1405,20 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1419,7 +1430,7 @@
       <c r="G1" s="21"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1445,7 +1456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
@@ -1461,7 +1472,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -1475,7 +1486,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
@@ -1489,7 +1500,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
@@ -1503,7 +1514,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -1513,7 +1524,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>14</v>
       </c>
@@ -1529,7 +1540,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -1543,7 +1554,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -1557,7 +1568,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -1571,7 +1582,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -1585,7 +1596,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
@@ -1599,7 +1610,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -1613,7 +1624,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
@@ -1646,24 +1657,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1675,7 +1686,7 @@
       <c r="G1" s="21"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1701,7 +1712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
@@ -1723,7 +1734,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -1743,7 +1754,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
@@ -1751,19 +1762,19 @@
       <c r="C5" s="6">
         <v>43649</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6">
+        <v>43649</v>
+      </c>
       <c r="E5" s="6">
         <v>43648</v>
       </c>
       <c r="F5" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>23</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G5" s="18"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
@@ -1772,12 +1783,18 @@
         <v>43650</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="E6" s="6">
+        <v>43649</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -1787,7 +1804,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>14</v>
       </c>
@@ -1809,7 +1826,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -1828,10 +1845,10 @@
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -1850,10 +1867,10 @@
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -1872,10 +1889,10 @@
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -1894,10 +1911,10 @@
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
@@ -1916,10 +1933,10 @@
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -1939,7 +1956,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
@@ -1969,7 +1986,7 @@
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1982,20 +1999,20 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2007,7 +2024,7 @@
       <c r="G1" s="21"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2033,7 +2050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
@@ -2053,7 +2070,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -2071,7 +2088,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
@@ -2089,7 +2106,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
@@ -2103,7 +2120,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -2113,7 +2130,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>14</v>
       </c>
@@ -2133,7 +2150,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -2151,7 +2168,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -2169,7 +2186,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -2187,7 +2204,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -2205,7 +2222,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
@@ -2223,7 +2240,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -2241,7 +2258,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
@@ -2257,7 +2274,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F32" s="2">
         <v>0</v>
       </c>
@@ -2285,20 +2302,20 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2310,7 +2327,7 @@
       <c r="G1" s="21"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2336,7 +2353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
@@ -2358,7 +2375,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -2372,7 +2389,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
@@ -2386,7 +2403,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
@@ -2400,7 +2417,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -2410,7 +2427,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>14</v>
       </c>
@@ -2432,7 +2449,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -2452,7 +2469,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -2472,7 +2489,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -2492,7 +2509,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -2512,7 +2529,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
@@ -2532,7 +2549,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -2552,7 +2569,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
@@ -2595,20 +2612,20 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2620,7 +2637,7 @@
       <c r="G1" s="21"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2646,7 +2663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
@@ -2666,7 +2683,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -2684,7 +2701,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
@@ -2700,7 +2717,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
@@ -2714,7 +2731,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -2724,7 +2741,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>14</v>
       </c>
@@ -2743,7 +2760,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -2761,7 +2778,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -2778,10 +2795,10 @@
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -2799,7 +2816,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -2817,7 +2834,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
@@ -2833,7 +2850,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -2849,7 +2866,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
@@ -2888,20 +2905,20 @@
       <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2913,7 +2930,7 @@
       <c r="G1" s="21"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2939,7 +2956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
@@ -2955,7 +2972,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -2969,7 +2986,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
@@ -2983,7 +3000,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
@@ -2997,7 +3014,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -3007,7 +3024,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>14</v>
       </c>
@@ -3027,7 +3044,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -3043,7 +3060,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -3059,7 +3076,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -3075,7 +3092,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -3091,7 +3108,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
@@ -3107,7 +3124,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -3121,7 +3138,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
@@ -3158,20 +3175,20 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3183,7 +3200,7 @@
       <c r="G1" s="21"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3209,7 +3226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
@@ -3225,7 +3242,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -3239,7 +3256,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
@@ -3253,7 +3270,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
@@ -3267,7 +3284,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -3277,7 +3294,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>14</v>
       </c>
@@ -3293,7 +3310,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -3307,7 +3324,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -3321,7 +3338,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -3335,7 +3352,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -3349,7 +3366,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
@@ -3363,7 +3380,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -3377,7 +3394,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
@@ -3410,24 +3427,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3439,7 +3456,7 @@
       <c r="G1" s="21"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3465,7 +3482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
@@ -3485,7 +3502,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -3501,7 +3518,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
@@ -3517,7 +3534,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
@@ -3531,7 +3548,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -3541,7 +3558,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>14</v>
       </c>
@@ -3561,7 +3578,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -3579,7 +3596,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -3597,7 +3614,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -3615,7 +3632,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -3633,7 +3650,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
@@ -3649,7 +3666,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -3665,7 +3682,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
@@ -3704,20 +3721,20 @@
       <selection activeCell="E8" sqref="E8:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3729,7 +3746,7 @@
       <c r="G1" s="21"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3755,7 +3772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
@@ -3771,7 +3788,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -3785,7 +3802,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
@@ -3799,7 +3816,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
@@ -3813,7 +3830,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -3823,7 +3840,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>14</v>
       </c>
@@ -3841,7 +3858,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -3857,7 +3874,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -3873,7 +3890,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -3889,7 +3906,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -3905,7 +3922,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
@@ -3921,7 +3938,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -3935,7 +3952,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>22</v>

--- a/周青山/编码进度表—周青山 .xlsx
+++ b/周青山/编码进度表—周青山 .xlsx
@@ -124,9 +124,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -189,30 +189,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="54"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,80 +231,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,29 +247,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,9 +267,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,8 +290,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,18 +356,48 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -457,6 +457,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -469,7 +541,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,25 +649,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,163 +667,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,8 +775,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thick">
-        <color indexed="49"/>
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,17 +829,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,26 +892,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
         <color indexed="44"/>
       </bottom>
       <diagonal/>
@@ -872,53 +914,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
-        <color indexed="49"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -972,190 +972,190 @@
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2543,7 +2543,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -2776,7 +2776,7 @@
         <v>43644</v>
       </c>
       <c r="F13" s="21">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
@@ -2794,7 +2794,7 @@
         <v>43645</v>
       </c>
       <c r="F14" s="21">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>

--- a/周青山/编码进度表—周青山 .xlsx
+++ b/周青山/编码进度表—周青山 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\hgkj_02\周青山\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zhuomian\hgkj_02\周青山\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B45480D-27CD-4871-B1FC-D84CD5B6228F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8A8230-CCDA-4A2E-8535-463EE8271F69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周青山 " sheetId="11" r:id="rId1"/>
@@ -703,6 +703,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -719,9 +722,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1096,36 +1096,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1151,8 +1151,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1171,8 +1171,8 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
@@ -1187,10 +1187,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
@@ -1205,10 +1205,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
@@ -1216,14 +1216,16 @@
         <v>43650</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6">
+        <v>43650</v>
+      </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="8"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -1231,10 +1233,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1253,8 +1255,8 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1271,8 +1273,8 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -1289,8 +1291,8 @@
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -1307,8 +1309,8 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="24"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
@@ -1325,8 +1327,8 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
@@ -1343,8 +1345,8 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
@@ -1361,8 +1363,8 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="24"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
@@ -1379,7 +1381,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="19"/>
     </row>
   </sheetData>
@@ -1405,32 +1407,32 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1456,8 +1458,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1472,8 +1474,8 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
@@ -1484,10 +1486,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
@@ -1498,10 +1500,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
@@ -1512,9 +1514,9 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -1522,10 +1524,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1540,8 +1542,8 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1554,8 +1556,8 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -1568,8 +1570,8 @@
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -1582,8 +1584,8 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="24"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
@@ -1596,8 +1598,8 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
@@ -1610,8 +1612,8 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
@@ -1624,8 +1626,8 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="24"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
@@ -1657,36 +1659,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1712,8 +1714,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1734,8 +1736,8 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
@@ -1752,10 +1754,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
@@ -1772,10 +1774,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="18"/>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
@@ -1789,12 +1791,12 @@
       <c r="F6" s="7">
         <v>0.3</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -1802,10 +1804,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1826,8 +1828,8 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1848,8 +1850,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -1870,8 +1872,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -1892,8 +1894,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="24"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
@@ -1914,8 +1916,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
@@ -1936,8 +1938,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
@@ -1956,8 +1958,8 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="24"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
@@ -1999,32 +2001,32 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2050,8 +2052,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2070,8 +2072,8 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
@@ -2086,10 +2088,10 @@
         <v>0.5</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
@@ -2104,10 +2106,10 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
@@ -2118,9 +2120,9 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -2128,10 +2130,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2150,8 +2152,8 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
@@ -2168,8 +2170,8 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -2186,8 +2188,8 @@
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -2204,8 +2206,8 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="24"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
@@ -2222,8 +2224,8 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
@@ -2240,8 +2242,8 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
@@ -2258,8 +2260,8 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="24"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
@@ -2274,7 +2276,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F32" s="2">
         <v>0</v>
       </c>
@@ -2302,32 +2304,32 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2353,8 +2355,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2375,8 +2377,8 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
@@ -2387,10 +2389,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
@@ -2401,10 +2403,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
@@ -2415,9 +2417,9 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -2425,10 +2427,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2449,8 +2451,8 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
@@ -2469,8 +2471,8 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -2489,8 +2491,8 @@
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -2509,8 +2511,8 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="24"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
@@ -2529,8 +2531,8 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
@@ -2549,8 +2551,8 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
@@ -2569,8 +2571,8 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="24"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
@@ -2612,32 +2614,32 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2663,8 +2665,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2683,8 +2685,8 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
@@ -2699,10 +2701,10 @@
         <v>0.8</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
@@ -2715,10 +2717,10 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
@@ -2729,9 +2731,9 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -2739,10 +2741,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2760,8 +2762,8 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
@@ -2778,8 +2780,8 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -2798,8 +2800,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -2816,8 +2818,8 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="24"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
@@ -2834,8 +2836,8 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
@@ -2850,8 +2852,8 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
@@ -2866,8 +2868,8 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="24"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
@@ -2905,32 +2907,32 @@
       <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2956,8 +2958,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2972,8 +2974,8 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
@@ -2984,10 +2986,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
@@ -2998,10 +3000,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
@@ -3012,9 +3014,9 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -3022,10 +3024,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -3044,8 +3046,8 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
@@ -3060,8 +3062,8 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -3076,8 +3078,8 @@
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -3092,8 +3094,8 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="24"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
@@ -3108,8 +3110,8 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3126,8 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
@@ -3138,8 +3140,8 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="24"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
@@ -3175,32 +3177,32 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3226,8 +3228,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3242,8 +3244,8 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
@@ -3254,10 +3256,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
@@ -3268,10 +3270,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
@@ -3282,9 +3284,9 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -3292,10 +3294,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -3310,8 +3312,8 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
@@ -3324,8 +3326,8 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -3338,8 +3340,8 @@
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -3352,8 +3354,8 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="24"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
@@ -3366,8 +3368,8 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
@@ -3380,8 +3382,8 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
@@ -3394,8 +3396,8 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="24"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
@@ -3431,32 +3433,32 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3482,8 +3484,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3502,8 +3504,8 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
@@ -3516,10 +3518,10 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
@@ -3532,10 +3534,10 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
@@ -3546,9 +3548,9 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -3556,10 +3558,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -3578,8 +3580,8 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
@@ -3596,8 +3598,8 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -3614,8 +3616,8 @@
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -3632,8 +3634,8 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="24"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
@@ -3650,8 +3652,8 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
@@ -3666,8 +3668,8 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
@@ -3682,8 +3684,8 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="24"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
@@ -3721,32 +3723,32 @@
       <selection activeCell="E8" sqref="E8:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3772,8 +3774,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3788,8 +3790,8 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
@@ -3800,10 +3802,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
@@ -3814,10 +3816,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
@@ -3828,9 +3830,9 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -3838,10 +3840,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -3858,8 +3860,8 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
@@ -3874,8 +3876,8 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -3890,8 +3892,8 @@
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -3906,8 +3908,8 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="24"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
@@ -3922,8 +3924,8 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
@@ -3938,8 +3940,8 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
@@ -3952,8 +3954,8 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="24"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
       </c>

--- a/周青山/编码进度表—周青山 .xlsx
+++ b/周青山/编码进度表—周青山 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zhuomian\hgkj_02\周青山\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8A8230-CCDA-4A2E-8535-463EE8271F69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7873A23-54A1-46A4-8624-296C6402B6F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="28">
   <si>
     <t>进度控制表-旅游网的设计与实现</t>
   </si>
@@ -110,6 +110,10 @@
   </si>
   <si>
     <t>团购信息的查看已做</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>WWW</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -1096,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -1187,7 +1191,9 @@
         <v>1</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="25"/>
+      <c r="H4" s="25" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24"/>

--- a/周青山/编码进度表—周青山 .xlsx
+++ b/周青山/编码进度表—周青山 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zhuomian\hgkj_02\周青山\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7873A23-54A1-46A4-8624-296C6402B6F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3CE6B2-0BF6-4D10-A246-0D95AA0487E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="29">
   <si>
     <t>进度控制表-旅游网的设计与实现</t>
   </si>
@@ -114,6 +114,10 @@
   </si>
   <si>
     <t>WWW</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>www</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -1101,7 +1105,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H5"/>
+      <selection activeCell="H6" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -1229,7 +1233,9 @@
         <v>1</v>
       </c>
       <c r="G6" s="8"/>
-      <c r="H6" s="26"/>
+      <c r="H6" s="26" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>

--- a/周青山/编码进度表—周青山 .xlsx
+++ b/周青山/编码进度表—周青山 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zhuomian\hgkj_02\周青山\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\hgkj_02\周青山\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3CE6B2-0BF6-4D10-A246-0D95AA0487E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8243B1E1-2B7B-4821-9693-D99B9F29CCB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周青山 " sheetId="11" r:id="rId1"/>
@@ -1104,24 +1104,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1133,7 +1133,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
@@ -1179,7 +1179,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -1199,7 +1199,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
@@ -1217,7 +1217,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
@@ -1237,7 +1237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -1247,7 +1247,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
@@ -1267,7 +1267,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -1285,7 +1285,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -1303,7 +1303,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -1321,7 +1321,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -1339,7 +1339,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
@@ -1357,7 +1357,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -1375,7 +1375,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
@@ -1393,7 +1393,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
     </row>
   </sheetData>
@@ -1419,20 +1419,20 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1444,7 +1444,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
@@ -1486,7 +1486,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -1500,7 +1500,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="25"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
@@ -1514,7 +1514,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
@@ -1528,7 +1528,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -1538,7 +1538,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
@@ -1554,7 +1554,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -1568,7 +1568,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -1582,7 +1582,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -1596,7 +1596,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -1610,7 +1610,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
@@ -1624,7 +1624,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -1638,7 +1638,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
@@ -1671,24 +1671,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1700,7 +1700,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
@@ -1748,7 +1748,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -1768,7 +1768,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="25"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
@@ -1788,7 +1788,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
@@ -1796,19 +1796,21 @@
       <c r="C6" s="6">
         <v>43650</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6">
+        <v>43650</v>
+      </c>
       <c r="E6" s="6">
         <v>43649</v>
       </c>
       <c r="F6" s="7">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -1818,7 +1820,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
@@ -1840,7 +1842,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -1862,7 +1864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -1884,7 +1886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -1906,7 +1908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -1928,7 +1930,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
@@ -1950,7 +1952,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -1970,7 +1972,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
@@ -2013,20 +2015,20 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2038,7 +2040,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2064,7 +2066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
@@ -2084,7 +2086,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -2102,7 +2104,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="25"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
@@ -2120,7 +2122,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
@@ -2134,7 +2136,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -2144,7 +2146,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
@@ -2164,7 +2166,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -2182,7 +2184,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -2200,7 +2202,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -2218,7 +2220,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -2236,7 +2238,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
@@ -2254,7 +2256,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -2272,7 +2274,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
@@ -2288,7 +2290,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F32" s="2">
         <v>0</v>
       </c>
@@ -2316,20 +2318,20 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2341,7 +2343,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2367,7 +2369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
@@ -2389,7 +2391,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -2403,7 +2405,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="25"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
@@ -2417,7 +2419,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
@@ -2431,7 +2433,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -2441,7 +2443,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
@@ -2463,7 +2465,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -2483,7 +2485,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -2503,7 +2505,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -2523,7 +2525,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -2543,7 +2545,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
@@ -2563,7 +2565,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -2583,7 +2585,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
@@ -2626,20 +2628,20 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2651,7 +2653,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2677,7 +2679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
@@ -2697,7 +2699,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -2715,7 +2717,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="25"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
@@ -2731,7 +2733,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
@@ -2745,7 +2747,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -2755,7 +2757,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
@@ -2774,7 +2776,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -2792,7 +2794,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -2812,7 +2814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -2830,7 +2832,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -2848,7 +2850,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
@@ -2864,7 +2866,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -2880,7 +2882,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
@@ -2919,20 +2921,20 @@
       <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2944,7 +2946,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2970,7 +2972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
@@ -2986,7 +2988,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -3000,7 +3002,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="25"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
@@ -3014,7 +3016,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
@@ -3028,7 +3030,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -3038,7 +3040,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
@@ -3058,7 +3060,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -3074,7 +3076,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -3090,7 +3092,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -3106,7 +3108,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -3122,7 +3124,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
@@ -3138,7 +3140,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -3152,7 +3154,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
@@ -3189,20 +3191,20 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3214,7 +3216,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3240,7 +3242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
@@ -3256,7 +3258,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -3270,7 +3272,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="25"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
@@ -3284,7 +3286,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
@@ -3298,7 +3300,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -3308,7 +3310,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
@@ -3324,7 +3326,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -3338,7 +3340,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -3352,7 +3354,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -3366,7 +3368,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -3380,7 +3382,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
@@ -3394,7 +3396,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -3408,7 +3410,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
@@ -3445,20 +3447,20 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3470,7 +3472,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3496,7 +3498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
@@ -3516,7 +3518,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -3532,7 +3534,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="25"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
@@ -3548,7 +3550,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
@@ -3562,7 +3564,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -3572,7 +3574,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
@@ -3592,7 +3594,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -3610,7 +3612,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -3628,7 +3630,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -3646,7 +3648,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -3664,7 +3666,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
@@ -3680,7 +3682,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -3696,7 +3698,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="5" t="s">
         <v>22</v>
@@ -3735,20 +3737,20 @@
       <selection activeCell="E8" sqref="E8:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3760,7 +3762,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3786,7 +3788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
@@ -3802,7 +3804,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
@@ -3816,7 +3818,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="25"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
@@ -3830,7 +3832,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
@@ -3844,7 +3846,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
@@ -3854,7 +3856,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
@@ -3872,7 +3874,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -3888,7 +3890,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -3904,7 +3906,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -3920,7 +3922,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -3936,7 +3938,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
@@ -3952,7 +3954,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -3966,7 +3968,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="5" t="s">
         <v>22</v>

--- a/周青山/编码进度表—周青山 .xlsx
+++ b/周青山/编码进度表—周青山 .xlsx
@@ -126,10 +126,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -186,13 +186,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -201,95 +194,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -304,7 +209,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,7 +232,86 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,10 +326,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -343,6 +361,13 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -356,10 +381,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -369,36 +396,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -460,13 +460,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,25 +514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,7 +526,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,19 +556,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,19 +604,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,73 +616,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,19 +670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,6 +760,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -776,6 +791,54 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -786,6 +849,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,32 +882,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,23 +894,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="thick">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,24 +911,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="63"/>
       </left>
@@ -904,24 +922,6 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,190 +975,190 @@
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1179,7 +1179,7 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="42" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="42" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="43" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -2546,7 +2546,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -2613,7 +2613,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="10">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="12"/>
@@ -2629,7 +2629,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="10">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="14"/>
@@ -2645,7 +2645,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="10">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -2661,7 +2661,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="10">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -2691,7 +2691,7 @@
         <v>43639</v>
       </c>
       <c r="F8" s="10">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="16"/>
@@ -2709,7 +2709,7 @@
         <v>43640</v>
       </c>
       <c r="F9" s="10">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="17"/>
@@ -2727,7 +2727,7 @@
         <v>43641</v>
       </c>
       <c r="F10" s="10">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="16"/>
@@ -2745,7 +2745,7 @@
         <v>43642</v>
       </c>
       <c r="F11" s="10">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="18"/>
@@ -2763,7 +2763,7 @@
         <v>43643</v>
       </c>
       <c r="F12" s="21">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -2781,7 +2781,7 @@
         <v>43644</v>
       </c>
       <c r="F13" s="21">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
@@ -2799,7 +2799,7 @@
         <v>43645</v>
       </c>
       <c r="F14" s="21">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
@@ -2814,7 +2814,9 @@
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="F15" s="21">
+        <v>0.8</v>
+      </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
     </row>
